--- a/medicine/Enfance/Ana_Maria_Machado/Ana_Maria_Machado.xlsx
+++ b/medicine/Enfance/Ana_Maria_Machado/Ana_Maria_Machado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ana Maria Machado, née le 24 décembre 1941 à Rio de Janeiro, est une autrice brésilienne de littérature d'enfance et de jeunesse. Elle est lauréate du prestigieux prix international, le Prix Hans Christian Andersen, catégorie Écriture, en 2000.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Élève de l'École pratique des hautes études, elle y soutient une thèse sur João Guimarães Rosa sous la direction de Roland Barthes[1]. Elle travaille ensuite comme journaliste en France et à Londres.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élève de l'École pratique des hautes études, elle y soutient une thèse sur João Guimarães Rosa sous la direction de Roland Barthes. Elle travaille ensuite comme journaliste en France et à Londres.
 Elle commence à écrire en 1969. Depuis 2003, elle est membre de l'Académie brésilienne des lettres, institution qu'elle préside en 2012-2013.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Une Grande petite fille , Hatier, 1984.
 Comme dit la chanson, La Joie de lire, 2002.
@@ -578,10 +594,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Jabuti 1978
-(international) « Honour List » 1984[2] de l' IBBY, catégorie Auteur, pour Bisa Bia, Bisa Bel (illustré par Regina Yolanda)
+(international) « Honour List » 1984 de l' IBBY, catégorie Auteur, pour Bisa Bia, Bisa Bel (illustré par Regina Yolanda)
 Prix Hans Christian Andersen, catégorie Écriture, 2000
 Prix du Prince Claus 2010</t>
         </is>
